--- a/table_results.xlsx
+++ b/table_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12930"/>
+    <workbookView windowWidth="28080" windowHeight="14730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+  <si>
+    <t>old results</t>
+  </si>
   <si>
     <t>(1,1,1)</t>
   </si>
@@ -36,17 +39,30 @@
   <si>
     <t>nlos</t>
   </si>
+  <si>
+    <t>new results</t>
+  </si>
+  <si>
+    <t>(1,1,2)</t>
+  </si>
+  <si>
+    <t>(4,4,8)</t>
+  </si>
+  <si>
+    <t>(8,8,16)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,6 +90,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -81,7 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,7 +143,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,31 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,67 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,26 +428,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +482,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -486,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -514,142 +530,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,18 +675,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -991,26 +1019,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F9"/>
+  <dimension ref="A2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1018,7 +1051,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="1">
-        <v>31.6</v>
+        <v>10.5</v>
       </c>
       <c r="D4" s="1">
         <v>12.7</v>
@@ -1027,44 +1060,44 @@
         <v>6.3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>11.3</v>
       </c>
       <c r="D5" s="1">
         <v>6.3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6">
         <v>80</v>
       </c>
-      <c r="C6" s="1">
-        <v>12.7</v>
+      <c r="C6" s="2">
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>6.3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1080,13 +1113,13 @@
       <c r="E7" s="1">
         <v>2.2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>8.1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -1094,13 +1127,13 @@
       <c r="C8" s="1">
         <v>87.9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>56.8</v>
       </c>
       <c r="E8" s="1">
         <v>2.1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>7.1</v>
       </c>
     </row>
@@ -1120,6 +1153,224 @@
       <c r="F9" s="1">
         <v>1.4</v>
       </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17" s="4">
+        <v>120.2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103.2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3">
+        <v>110.9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_results.xlsx
+++ b/table_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14730"/>
+    <workbookView windowWidth="28080" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>old results</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t>(8,8,16)</t>
+  </si>
+  <si>
+    <t>newer results</t>
+  </si>
+  <si>
+    <t>(2,2,2)</t>
+  </si>
+  <si>
+    <t>(4,4,4)</t>
+  </si>
+  <si>
+    <t>(6,6,6)</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
+  </si>
+  <si>
+    <t>6,6,6</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
   </si>
 </sst>
 </file>
@@ -57,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,25 +116,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,76 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +202,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -234,31 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,151 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +452,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,17 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -511,17 +532,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,142 +557,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,22 +706,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1019,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -1285,6 +1312,238 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L23" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24" s="4">
+        <v>40.8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L24" s="4">
+        <v>40.8</v>
+      </c>
+      <c r="M24" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4">
+        <v>32.3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L25" s="4">
+        <v>32.3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26">
+        <v>99</v>
+      </c>
+      <c r="D26" s="4">
+        <v>123.7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>81.4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L26" s="4">
+        <v>123.7</v>
+      </c>
+      <c r="M26" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>81.4</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4">
+        <v>111.2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>116.7</v>
+      </c>
+      <c r="F27" s="4">
+        <v>66.1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="4">
+        <v>111.2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>116.7</v>
+      </c>
+      <c r="N27" s="4">
+        <v>66.1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4">
+        <v>91.6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>112.8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L28" s="4">
+        <v>91.6</v>
+      </c>
+      <c r="M28" s="4">
+        <v>112.8</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="32" spans="4:7">
       <c r="D32" s="3"/>

--- a/table_results.xlsx
+++ b/table_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12930"/>
+    <workbookView windowWidth="28080" windowHeight="14730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>old results</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>8,8,8</t>
+  </si>
+  <si>
+    <t>2,2,4</t>
+  </si>
+  <si>
+    <t>4,4,8</t>
+  </si>
+  <si>
+    <t>6,6,12</t>
+  </si>
+  <si>
+    <t>8,8,16</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1061,7 @@
   <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1545,36 +1557,76 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="4:7">
+    <row r="30" spans="13:16">
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="13:16">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="4:16">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="4:7">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="4:16">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="4:7">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="4:16">
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="4:7">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="4:16">
       <c r="D36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="4:7">
       <c r="D37" s="3"/>
